--- a/biology/Zoologie/Eosqualiolus/Eosqualiolus.xlsx
+++ b/biology/Zoologie/Eosqualiolus/Eosqualiolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eosqualiolus est un genre éteint de requins de la famille des Dalatiidae. 
-Ce genre a été décrit par Sylvain Adnet en 2006 avec comme espèce type Eosqualiolus aturensis. Elle a vécu lors de l’Éocène dans ce qui est aujourd’hui la France[3]. 
-Une nouvelle espèce, Eosqualiolus skrovinai, qui a vécu dans ce qui est de nos jours la Slovaquie lors du Miocène, a été décrite par Charlie J. Underwood et Jan Schlogl en 2012, et nommée en hommage à Michal Škrovina. Elle a été décrite à partir de 14 dents fossiles, 9 supérieures et 5 inférieures, certaines étant partielles et d’autres complètes[2].
+Ce genre a été décrit par Sylvain Adnet en 2006 avec comme espèce type Eosqualiolus aturensis. Elle a vécu lors de l’Éocène dans ce qui est aujourd’hui la France. 
+Une nouvelle espèce, Eosqualiolus skrovinai, qui a vécu dans ce qui est de nos jours la Slovaquie lors du Miocène, a été décrite par Charlie J. Underwood et Jan Schlogl en 2012, et nommée en hommage à Michal Škrovina. Elle a été décrite à partir de 14 dents fossiles, 9 supérieures et 5 inférieures, certaines étant partielles et d’autres complètes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (26 juillet 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (26 juillet 2019) :
 Eosqualiolus aturensis
 Eosqualiolus skrovinai</t>
         </is>
